--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B5B22-B89F-426D-A118-9D59485A787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CBF148-4864-492B-BB1B-2296E081A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -54,19 +54,34 @@
     <t>Ignacio Moreira Lara</t>
   </si>
   <si>
-    <t>A Conditionally Heteroskedastic Time Series Model for Speculative Prices and Rates of Return</t>
-  </si>
-  <si>
     <t>Antonio Fioravanti</t>
   </si>
   <si>
-    <t>Bayesian Nonparametric Modeling for Causal Inference</t>
-  </si>
-  <si>
-    <t>&lt;a href = "https://scholar.harvard.edu/shephard/publications/nonparametric-dynamic-causal-model-macroeconometrics" target="_blank"&gt;When Do Common Time Series Estimands Have Nonparametric Causal Meaning?&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.jstor.org/stable/1912017" target="_blank"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
+    <t>&lt;a href = "paper/Rambachan_timeseries_causal_nonparametric.pdf" download="Rambachan_timeseries_causal_nonparametric.pdf"&gt;When Do Common Time Series Estimands Have Nonparametric Causal Meaning?&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper/Sims_marcoeconomics_and_reality.pdf" download="Sims_marcoeconomics_and_reality.pdf"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper/Bollerslev_ConditionallyHeteroskedasticTime.pdf" download="Bollerslev_ConditionallyHeteroskedasticTime.pdf"&gt;A Conditionally Heteroskedastic Time Series Model for Speculative Prices and Rates of Return&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" donwload="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Sven Pappert</t>
+  </si>
+  <si>
+    <t>Simon Hirsch</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf" download="Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf"&gt; Optimal Forecast Reconciliation for Hierarchical and Grouped Time Series Through Trace Minimization&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf" download="Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf"&gt;  GAMLSS (Generalised additive Model for Location, Scale and Shape)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Supplements</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.3046875" customWidth="1"/>
+    <col min="2" max="2" width="129.15234375" customWidth="1"/>
     <col min="3" max="3" width="28.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,49 +463,74 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45671</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="155.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>45694</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CBF148-4864-492B-BB1B-2296E081A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E00B1-D29D-403F-A847-9E011A7712F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>&lt;a href = "paper/Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf" download="Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf"&gt;  GAMLSS (Generalised additive Model for Location, Scale and Shape)&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Supplements</t>
+    <t>Files</t>
   </si>
 </sst>
 </file>
@@ -443,17 +443,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.15234375" customWidth="1"/>
-    <col min="3" max="3" width="28.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45671</v>
       </c>
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="155.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="155.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
@@ -522,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45708</v>
       </c>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E00B1-D29D-403F-A847-9E011A7712F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +119,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,18 +433,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -478,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
@@ -489,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
@@ -500,9 +491,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45671</v>
+        <v>45680</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -511,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="155.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
@@ -522,7 +513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45708</v>
       </c>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A56C900-978D-4315-BFEC-6B7EE93884BD}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Files</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -111,12 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,96 +435,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="155.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A56C900-978D-4315-BFEC-6B7EE93884BD}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F518C9-8112-4A4F-95F8-A2A8B20BAB2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -484,7 +484,7 @@
         <v>45638</v>
       </c>
       <c r="B3" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -493,12 +493,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
       <c r="B4" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -512,7 +512,7 @@
         <v>45680</v>
       </c>
       <c r="B5" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -521,12 +521,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="155.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
       <c r="B6" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -540,7 +540,7 @@
         <v>45708</v>
       </c>
       <c r="B7" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F518C9-8112-4A4F-95F8-A2A8B20BAB2D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75918218-1FE9-43C5-8CA2-F084C0B5641F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>2 pm</t>
+  </si>
+  <si>
+    <t>5 pm</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,20 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,12 +471,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.58333333333333337</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -479,12 +485,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.70833333333333337</v>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -493,12 +499,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.70833333333333337</v>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -507,26 +513,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.70833333333333337</v>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.70833333333333337</v>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -535,19 +541,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.70833333333333337</v>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{BD568582-431A-44B0-84EC-5582F8E2C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75918218-1FE9-43C5-8CA2-F084C0B5641F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8DA59-8FAF-42CA-8A2A-A6BDC5894BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +57,6 @@
     <t>&lt;a href="paper/Bollerslev_ConditionallyHeteroskedasticTime.pdf" download="Bollerslev_ConditionallyHeteroskedasticTime.pdf"&gt;A Conditionally Heteroskedastic Time Series Model for Speculative Prices and Rates of Return&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = "paper/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" donwload="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Sven Pappert</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>5 pm</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" download="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "presentation/causal_macro_reading_group_WS24.pdf" download="causal_macro_reading_group_WS24.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,22 +447,22 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="115.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -468,15 +471,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -484,13 +487,16 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -499,12 +505,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -513,49 +519,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8DA59-8FAF-42CA-8A2A-A6BDC5894BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{10F8DA59-8FAF-42CA-8A2A-A6BDC5894BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7E7585-FB53-41F7-AD08-A33300744ACC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>&lt;a href="paper/Sims_marcoeconomics_and_reality.pdf" download="Sims_marcoeconomics_and_reality.pdf"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="paper/Bollerslev_ConditionallyHeteroskedasticTime.pdf" download="Bollerslev_ConditionallyHeteroskedasticTime.pdf"&gt;A Conditionally Heteroskedastic Time Series Model for Speculative Prices and Rates of Return&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Sven Pappert</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>&lt;a href = "presentation/causal_macro_reading_group_WS24.pdf" download="causal_macro_reading_group_WS24.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper/Chen_Autoregressive_models_for_matrix-valued_time_series.pdf" download="Chen_Autoregressive_models_for_matrix-valued_time_series.pdf"&gt;Autoregressive models for matrix-valued time series&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,10 +447,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>45610</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,7 +496,7 @@
         <v>45638</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -510,10 +510,10 @@
         <v>45666</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>45680</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -538,13 +538,13 @@
         <v>45694</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>45708</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{10F8DA59-8FAF-42CA-8A2A-A6BDC5894BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7E7585-FB53-41F7-AD08-A33300744ACC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC586D-4207-4BD8-BE98-876333901D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>&lt;a href="paper/Chen_Autoregressive_models_for_matrix-valued_time_series.pdf" download="Chen_Autoregressive_models_for_matrix-valued_time_series.pdf"&gt;Autoregressive models for matrix-valued time series&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "presentation/Macroeconomics_and_Reality_Presentation.pdf" download="Macroeconomics_and_Reality_Presentation.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -446,18 +449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" customWidth="1"/>
+    <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -491,7 +495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
@@ -504,8 +508,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
@@ -519,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
@@ -533,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
@@ -547,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
@@ -561,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC586D-4207-4BD8-BE98-876333901D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A5B3-0EE0-47F3-B45A-1A87943AFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>&lt;a href = "presentation/Macroeconomics_and_Reality_Presentation.pdf" download="Macroeconomics_and_Reality_Presentation.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "presentation/Autoregressive_models_for_matrix_valued_time_series.pdf" download="Autoregressive_models_for_matrix_valued_time_series.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,19 +452,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="115.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" customWidth="1"/>
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -495,7 +498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
@@ -512,7 +515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
@@ -525,8 +528,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
@@ -540,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
@@ -554,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
@@ -568,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A5B3-0EE0-47F3-B45A-1A87943AFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>&lt;a href = "presentation/Autoregressive_models_for_matrix_valued_time_series.pdf" download="Autoregressive_models_for_matrix_valued_time_series.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "presentation/presentation_ruhrmetrics_gamlss.pdf" download="presentation_ruhrmetrics_gamlss.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "presentation/MinT.pdf" download="MinT.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -452,19 +458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" customWidth="1"/>
+    <col min="3" max="3" width="115.69140625" customWidth="1"/>
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45610</v>
       </c>
@@ -498,7 +504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45638</v>
       </c>
@@ -515,7 +521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45666</v>
       </c>
@@ -532,7 +538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45680</v>
       </c>
@@ -545,8 +551,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45694</v>
       </c>
@@ -559,8 +568,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45708</v>
       </c>
@@ -574,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens Klenke\Documents\GitHub\RuhrMetrics_Reading_Group\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/Literature/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF3AE71-B318-4436-A572-AB97A0A547F9}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -36,67 +36,43 @@
     <t>Presenter(s)</t>
   </si>
   <si>
-    <t>Christian Schulz</t>
-  </si>
-  <si>
-    <t>Jens Klenke &amp; Lennard Maßmann</t>
-  </si>
-  <si>
-    <t>Ignacio Moreira Lara</t>
-  </si>
-  <si>
-    <t>Antonio Fioravanti</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper/Rambachan_timeseries_causal_nonparametric.pdf" download="Rambachan_timeseries_causal_nonparametric.pdf"&gt;When Do Common Time Series Estimands Have Nonparametric Causal Meaning?&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="paper/Sims_marcoeconomics_and_reality.pdf" download="Sims_marcoeconomics_and_reality.pdf"&gt;Macroeconomics and Reality&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Sven Pappert</t>
-  </si>
-  <si>
-    <t>Simon Hirsch</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper/Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf" download="Wickramasuriya_Optimal_Forecast_Reconciliation_for_Hierarchical_and_Grouped_Time_Series_Through_Trace_Minimization.pdf"&gt; Optimal Forecast Reconciliation for Hierarchical and Grouped Time Series Through Trace Minimization&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper/Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf" download="Rigby-Generalized_additive_models_for_location_scale_and_shape.pdf"&gt;  GAMLSS (Generalised additive Model for Location, Scale and Shape)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>2 pm</t>
-  </si>
-  <si>
     <t>5 pm</t>
   </si>
   <si>
-    <t>&lt;a href = "paper/Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf" download="Hill_Bayesian_Nonparametric_Modeling_for_Causal_Inference.pdf"&gt; Bayesian Nonparametric Modeling for Causal Inference&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "presentation/causal_macro_reading_group_WS24.pdf" download="causal_macro_reading_group_WS24.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="paper/Chen_Autoregressive_models_for_matrix-valued_time_series.pdf" download="Chen_Autoregressive_models_for_matrix-valued_time_series.pdf"&gt;Autoregressive models for matrix-valued time series&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "presentation/Macroeconomics_and_Reality_Presentation.pdf" download="Macroeconomics_and_Reality_Presentation.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "presentation/Autoregressive_models_for_matrix_valued_time_series.pdf" download="Autoregressive_models_for_matrix_valued_time_series.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "presentation/presentation_ruhrmetrics_gamlss.pdf" download="presentation_ruhrmetrics_gamlss.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "presentation/MinT.pdf" download="MinT.pdf"&gt;&amp;copy;&lt;/a&gt;</t>
+    <t>&lt;a href = "paper_new/Bootstraps_for_time_series.pdf" download="Bootstraps_for_time_series.pdf"&gt;  Bootstrap for time series&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Timo Puschmann</t>
+  </si>
+  <si>
+    <t>Daniel Dzikowski</t>
+  </si>
+  <si>
+    <t>Daria Ovsyannikova</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_new/Asymptotic_inference_about_predictive_ability.pdf" download="Asymptotic_inference_about_predictive_ability.pdf"&gt;Asymptotic Inference about Predictive Ability&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper_new/LASSO-driven_inference_in_time_and_space.pdf" download="LASSO-driven_inference_in_time_and_space.pdf"&gt;LASSO-driven inference in time and space &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_new/Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf" download="Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf"&gt; Regression diagnostics meets forecast evaluation: conditional calibration, reliability diagrams and coefficient of determination&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper_new/Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf" download="Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf"&gt; Inference on heterogeneous treatment effects in high-dimensional dynamic panels under weak dependence&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Eva Oeß &amp; Lennard Massmann</t>
+  </si>
+  <si>
+    <t>Btissame El Mahtout</t>
   </si>
 </sst>
 </file>
@@ -144,7 +120,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,24 +434,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.69140625" customWidth="1"/>
-    <col min="3" max="3" width="115.69140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" customWidth="1"/>
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -484,109 +460,89 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>45610</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>45638</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>45666</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>45680</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>45694</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>45708</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/Literature/Reading group/RuhrMetrics_Reading_Group/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF3AE71-B318-4436-A572-AB97A0A547F9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72611F6-3037-49F6-AEA7-D7FC80DF1BC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Btissame El Mahtout</t>
+  </si>
+  <si>
+    <t>Simon Hirsch</t>
+  </si>
+  <si>
+    <t>A combination of two papers: &lt;a href = "paper_new/Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf" download="Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf"&gt; Regularization Paths for Generalized Linear Models via Coordinate Descent&lt;/a&gt; and &lt;a href = "paper_new/Pathwise_coordinate_optimization.pdf" download="Pathwise_coordinate_optimization.pdf"&gt;  Pathwise coordinate optimization&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +491,12 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -521,11 +533,11 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72611F6-3037-49F6-AEA7-D7FC80DF1BC3}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34F5944D-7E0C-4DB4-8492-2D96C6047DD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,76 +469,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45771</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45792</v>
+        <v>45813</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45848</v>
+        <v>45869</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34F5944D-7E0C-4DB4-8492-2D96C6047DD6}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44BB0CB-1FF2-4D45-A269-2D89E56F5ABD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -444,15 +444,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="115.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" customWidth="1"/>
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45771</v>
       </c>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45785</v>
       </c>
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45813</v>
       </c>
@@ -505,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45848</v>
       </c>
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45869</v>
       </c>
@@ -540,7 +540,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45890</v>
       </c>
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44BB0CB-1FF2-4D45-A269-2D89E56F5ABD}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A922F933-7A01-4A21-B5F3-53D655C3B1F9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-828" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +45,6 @@
     <t>5 pm</t>
   </si>
   <si>
-    <t>&lt;a href = "paper_new/Bootstraps_for_time_series.pdf" download="Bootstraps_for_time_series.pdf"&gt;  Bootstrap for time series&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Timo Puschmann</t>
   </si>
   <si>
@@ -57,28 +54,25 @@
     <t>Daria Ovsyannikova</t>
   </si>
   <si>
-    <t>&lt;a href = "paper_new/Asymptotic_inference_about_predictive_ability.pdf" download="Asymptotic_inference_about_predictive_ability.pdf"&gt;Asymptotic Inference about Predictive Ability&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="paper_new/LASSO-driven_inference_in_time_and_space.pdf" download="LASSO-driven_inference_in_time_and_space.pdf"&gt;LASSO-driven inference in time and space &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper_new/Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf" download="Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf"&gt; Regression diagnostics meets forecast evaluation: conditional calibration, reliability diagrams and coefficient of determination&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "paper_new/Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf" download="Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf"&gt; Inference on heterogeneous treatment effects in high-dimensional dynamic panels under weak dependence&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Eva Oeß &amp; Lennard Massmann</t>
   </si>
   <si>
-    <t>Btissame El Mahtout</t>
-  </si>
-  <si>
     <t>Simon Hirsch</t>
   </si>
   <si>
-    <t>A combination of two papers: &lt;a href = "paper_new/Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf" download="Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf"&gt; Regularization Paths for Generalized Linear Models via Coordinate Descent&lt;/a&gt; and &lt;a href = "paper_new/Pathwise_coordinate_optimization.pdf" download="Pathwise_coordinate_optimization.pdf"&gt;  Pathwise coordinate optimization&lt;/a&gt;</t>
+    <t>&lt;a href = "paper/Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf" download="Regression_diagnostics_meets_forecast_evaluation-conditional_calibration,_reliability_diagrams,_and_coefficient_of_determination.pdf"&gt; Regression diagnostics meets forecast evaluation: conditional calibration, reliability diagrams and coefficient of determination&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf" download="Inference_on_heterogeneous_treatment_effects_in_high‐dimensional_dynamic_panels.pdf"&gt; Inference on heterogeneous treatment effects in high-dimensional dynamic panels under weak dependence&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A combination of two papers: &lt;a href = "paper/Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf" download="Regularization_Paths_for_Generalized_Linear_Models_via_Coordinate_Descent.pdf"&gt; Regularization Paths for Generalized Linear Models via Coordinate Descent&lt;/a&gt; and &lt;a href = "paper/Pathwise_coordinate_optimization.pdf" download="Pathwise_coordinate_optimization.pdf"&gt;  Pathwise coordinate optimization&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="paper/LASSO-driven_inference_in_time_and_space.pdf" download="LASSO-driven_inference_in_time_and_space.pdf"&gt;LASSO-driven inference in time and space &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "paper/Bootstraps_for_time_series.pdf" download="Bootstraps_for_time_series.pdf"&gt;  Bootstrap for time series&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -438,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243CAAD-E342-4971-AD06-AB4BE82344F7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="115.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" customWidth="1"/>
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45771</v>
       </c>
@@ -477,13 +471,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45785</v>
       </c>
@@ -491,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45813</v>
       </c>
@@ -505,58 +499,44 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45869</v>
+        <v>45890</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45890</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513dcd0917740ba2/RGS documents/Reading group/RuhrMetrics_Reading_Group/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A922F933-7A01-4A21-B5F3-53D655C3B1F9}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{4B31BDE5-82FA-4906-BBD4-7389B58DD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C051B323-A5CD-4084-BB7F-906EFB8A297F}"/>
   <bookViews>
-    <workbookView xWindow="-828" yWindow="-14508" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8BAD8284-06BE-4115-98CF-B1E188670130}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45890</v>
+        <v>45883</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
